--- a/Engine/Unity/3.x/Learning_01/Tables/TutorialInfoTable.xlsx
+++ b/Engine/Unity/3.x/Learning_01/Tables/TutorialInfoTable.xlsx
@@ -12,13 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Replace</t>
   </si>
@@ -308,20 +302,20 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="16.14"/>
-    <col customWidth="1" min="7" max="7" width="14.43"/>
-    <col customWidth="1" min="8" max="8" width="20.86"/>
+    <col customWidth="1" min="1" max="3" width="14.43"/>
+    <col customWidth="1" min="4" max="4" width="16.14"/>
+    <col customWidth="1" min="5" max="5" width="14.43"/>
+    <col customWidth="1" min="6" max="6" width="20.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -330,40 +324,28 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
+      <c r="A2" s="2">
+        <v>0.0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
+      <c r="B2" s="2">
+        <v>-1.0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>0.0</v>
       </c>
       <c r="D2" s="2">
         <v>-1.0</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.0</v>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
       </c>
-      <c r="F2" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1"/>
@@ -1379,21 +1361,21 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="16.14"/>
-    <col customWidth="1" min="7" max="7" width="14.43"/>
-    <col customWidth="1" min="8" max="8" width="20.86"/>
-    <col customWidth="1" min="9" max="9" width="15.43"/>
+    <col customWidth="1" min="1" max="3" width="14.43"/>
+    <col customWidth="1" min="4" max="4" width="16.14"/>
+    <col customWidth="1" min="5" max="5" width="14.43"/>
+    <col customWidth="1" min="6" max="6" width="20.86"/>
+    <col customWidth="1" min="7" max="7" width="15.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1402,40 +1384,28 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
+      <c r="A2" s="2">
+        <v>0.0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
+      <c r="B2" s="2">
+        <v>-1.0</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.0</v>
+      <c r="C2" s="3">
+        <v>1.0E7</v>
       </c>
       <c r="D2" s="2">
         <v>-1.0</v>
       </c>
-      <c r="E2" s="3">
-        <v>1.0E7</v>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
       </c>
-      <c r="F2" s="2">
-        <v>-1.0</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1"/>
